--- a/data_year/zb/运输和邮电/货运量.xlsx
+++ b/data_year/zb/运输和邮电/货运量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,742 +488,434 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1038813</v>
+        <v>2448052</v>
       </c>
       <c r="C2" t="n">
-        <v>4156</v>
+        <v>35640.7682</v>
       </c>
       <c r="D2" t="n">
-        <v>166056</v>
+        <v>309541.0835</v>
       </c>
       <c r="E2" t="n">
-        <v>8369</v>
+        <v>19088.9458</v>
       </c>
       <c r="F2" t="n">
-        <v>196.71228</v>
+        <v>563.03705</v>
       </c>
       <c r="G2" t="n">
-        <v>122391</v>
+        <v>378949</v>
       </c>
       <c r="H2" t="n">
-        <v>18700</v>
+        <v>49971.8547866359</v>
       </c>
       <c r="I2" t="n">
-        <v>1358682</v>
+        <v>3241806.68933664</v>
       </c>
       <c r="J2" t="n">
-        <v>22949</v>
+        <v>58054</v>
       </c>
       <c r="K2" t="n">
-        <v>178581</v>
+        <v>364270.7975</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1056312</v>
+        <v>2820100</v>
       </c>
       <c r="C3" t="n">
-        <v>4446</v>
+        <v>41549.3636</v>
       </c>
       <c r="D3" t="n">
-        <v>179201</v>
+        <v>329534.7554</v>
       </c>
       <c r="E3" t="n">
-        <v>9542</v>
+        <v>22178.7713</v>
       </c>
       <c r="F3" t="n">
-        <v>171</v>
+        <v>557.477</v>
       </c>
       <c r="G3" t="n">
-        <v>132675</v>
+        <v>425968</v>
       </c>
       <c r="H3" t="n">
-        <v>19439</v>
+        <v>57072.72</v>
       </c>
       <c r="I3" t="n">
-        <v>1401786</v>
+        <v>3696961.0873</v>
       </c>
       <c r="J3" t="n">
-        <v>27573</v>
+        <v>63542</v>
       </c>
       <c r="K3" t="n">
-        <v>193189</v>
+        <v>393262.8903</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1116324</v>
+        <v>3188475</v>
       </c>
       <c r="C4" t="n">
-        <v>6137</v>
+        <v>43971.453</v>
       </c>
       <c r="D4" t="n">
-        <v>187578</v>
+        <v>323559.4977</v>
       </c>
       <c r="E4" t="n">
-        <v>11241</v>
+        <v>22906.5559</v>
       </c>
       <c r="F4" t="n">
-        <v>202.1</v>
+        <v>545.03422</v>
       </c>
       <c r="G4" t="n">
-        <v>141832</v>
+        <v>458705</v>
       </c>
       <c r="H4" t="n">
-        <v>20133</v>
+        <v>62273.6237172877</v>
       </c>
       <c r="I4" t="n">
-        <v>1483446.86</v>
+        <v>4100436.16453729</v>
       </c>
       <c r="J4" t="n">
-        <v>29896</v>
+        <v>65815</v>
       </c>
       <c r="K4" t="n">
-        <v>204956</v>
+        <v>390437.5066</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1159957</v>
+        <v>3076648</v>
       </c>
       <c r="C5" t="n">
-        <v>11370</v>
+        <v>49490.6775</v>
       </c>
       <c r="D5" t="n">
-        <v>199814</v>
+        <v>322207.2389</v>
       </c>
       <c r="E5" t="n">
-        <v>13064</v>
+        <v>24999.2997</v>
       </c>
       <c r="F5" t="n">
-        <v>219</v>
+        <v>561.25263</v>
       </c>
       <c r="G5" t="n">
-        <v>158070</v>
+        <v>559785</v>
       </c>
       <c r="H5" t="n">
-        <v>21998</v>
+        <v>65208.7774233466</v>
       </c>
       <c r="I5" t="n">
-        <v>1564491.54156</v>
+        <v>4098900.03185335</v>
       </c>
       <c r="J5" t="n">
-        <v>34002</v>
+        <v>71156</v>
       </c>
       <c r="K5" t="n">
-        <v>224248</v>
+        <v>396697.0018</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1244990</v>
+        <v>3113334</v>
       </c>
       <c r="C6" t="n">
-        <v>16277</v>
+        <v>50296.1954</v>
       </c>
       <c r="D6" t="n">
-        <v>217816</v>
+        <v>306942.2848</v>
       </c>
       <c r="E6" t="n">
-        <v>14924</v>
+        <v>24095.3269</v>
       </c>
       <c r="F6" t="n">
-        <v>276.7</v>
+        <v>594.09882</v>
       </c>
       <c r="G6" t="n">
-        <v>187394</v>
+        <v>598282.539</v>
       </c>
       <c r="H6" t="n">
-        <v>24734</v>
+        <v>73751.8442782424</v>
       </c>
       <c r="I6" t="n">
-        <v>1706412</v>
+        <v>4167296.28919824</v>
       </c>
       <c r="J6" t="n">
-        <v>39469</v>
+        <v>74733</v>
       </c>
       <c r="K6" t="n">
-        <v>249017</v>
+        <v>381333.8071</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1341778</v>
-      </c>
-      <c r="C7" t="n">
-        <v>19655</v>
-      </c>
-      <c r="D7" t="n">
-        <v>231839</v>
-      </c>
-      <c r="E7" t="n">
-        <v>17802</v>
-      </c>
+        <v>3150019</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>306.7</v>
+        <v>629.3</v>
       </c>
       <c r="G7" t="n">
-        <v>219648</v>
+        <v>613567</v>
       </c>
       <c r="H7" t="n">
-        <v>31037</v>
+        <v>75870</v>
       </c>
       <c r="I7" t="n">
-        <v>1862066</v>
+        <v>4175886.2942</v>
       </c>
       <c r="J7" t="n">
-        <v>48549</v>
+        <v>74685</v>
       </c>
       <c r="K7" t="n">
-        <v>269296</v>
+        <v>335801</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1466347</v>
-      </c>
-      <c r="C8" t="n">
-        <v>23154</v>
-      </c>
-      <c r="D8" t="n">
-        <v>245476</v>
-      </c>
-      <c r="E8" t="n">
-        <v>19593</v>
-      </c>
+        <v>3341259.3467</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>349.43196</v>
+        <v>668.0104700000001</v>
       </c>
       <c r="G8" t="n">
-        <v>248703</v>
+        <v>638237.775</v>
       </c>
       <c r="H8" t="n">
-        <v>33436.2687891235</v>
+        <v>73411.3095</v>
       </c>
       <c r="I8" t="n">
-        <v>2037059.70074912</v>
+        <v>4386762.63457</v>
       </c>
       <c r="J8" t="n">
-        <v>54413</v>
+        <v>79769</v>
       </c>
       <c r="K8" t="n">
-        <v>288224</v>
+        <v>333186.1929</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1639432</v>
-      </c>
-      <c r="C9" t="n">
-        <v>27447</v>
-      </c>
-      <c r="D9" t="n">
-        <v>262400</v>
-      </c>
-      <c r="E9" t="n">
-        <v>24390</v>
-      </c>
+        <v>3686857.6124</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>401.84851</v>
+        <v>705.89208</v>
       </c>
       <c r="G9" t="n">
-        <v>281199</v>
+        <v>667845.9643</v>
       </c>
       <c r="H9" t="n">
-        <v>40551.7622085259</v>
+        <v>80576.048802531</v>
       </c>
       <c r="I9" t="n">
-        <v>2275821.61071853</v>
+        <v>4804850.35938253</v>
       </c>
       <c r="J9" t="n">
-        <v>58903</v>
+        <v>76030.4039</v>
       </c>
       <c r="K9" t="n">
-        <v>314237</v>
+        <v>368864.8418</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1916759</v>
-      </c>
-      <c r="C10" t="n">
-        <v>27982.7178</v>
-      </c>
-      <c r="D10" t="n">
-        <v>275243.4237</v>
-      </c>
-      <c r="E10" t="n">
-        <v>27127.7569</v>
-      </c>
+        <v>3956870.7266</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>407.63762</v>
+        <v>738.5098400000001</v>
       </c>
       <c r="G10" t="n">
-        <v>294510</v>
+        <v>702684.2585</v>
       </c>
       <c r="H10" t="n">
-        <v>43906.295</v>
+        <v>89807.137799606</v>
       </c>
       <c r="I10" t="n">
-        <v>2585937.3156</v>
+        <v>5152731.55703961</v>
       </c>
       <c r="J10" t="n">
-        <v>42352</v>
+        <v>76969.1525</v>
       </c>
       <c r="K10" t="n">
-        <v>330354.1394</v>
+        <v>402630.9243</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2127834</v>
-      </c>
-      <c r="C11" t="n">
-        <v>31902.9961</v>
-      </c>
-      <c r="D11" t="n">
-        <v>277571.6981</v>
-      </c>
-      <c r="E11" t="n">
-        <v>23873.2283</v>
-      </c>
+        <v>3435480.00328372</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>445.5347</v>
+        <v>753.14261</v>
       </c>
       <c r="G11" t="n">
-        <v>318996</v>
+        <v>747225.4589</v>
       </c>
       <c r="H11" t="n">
-        <v>44598.4844513458</v>
+        <v>91261.3644131076</v>
       </c>
       <c r="I11" t="n">
-        <v>2825221.94165135</v>
+        <v>4713624.36000683</v>
       </c>
       <c r="J11" t="n">
-        <v>51733</v>
+        <v>83243.24490000001</v>
       </c>
       <c r="K11" t="n">
-        <v>333347.9225</v>
+        <v>438904.3908</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2448052</v>
-      </c>
-      <c r="C12" t="n">
-        <v>35640.7682</v>
-      </c>
-      <c r="D12" t="n">
-        <v>309541.0835</v>
-      </c>
-      <c r="E12" t="n">
-        <v>19088.9458</v>
-      </c>
+        <v>3426412.7218</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>563.03705</v>
+        <v>676.60699</v>
       </c>
       <c r="G12" t="n">
-        <v>378949</v>
+        <v>761629.5649999999</v>
       </c>
       <c r="H12" t="n">
-        <v>49971.8547866359</v>
+        <v>81906.74489101001</v>
       </c>
       <c r="I12" t="n">
-        <v>3241806.68933664</v>
+        <v>4725861.86498101</v>
       </c>
       <c r="J12" t="n">
-        <v>58054</v>
+        <v>380087</v>
       </c>
       <c r="K12" t="n">
-        <v>364270.7975</v>
+        <v>455236.2263</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2820100</v>
-      </c>
-      <c r="C13" t="n">
-        <v>41549.3636</v>
-      </c>
-      <c r="D13" t="n">
-        <v>329534.7554</v>
-      </c>
-      <c r="E13" t="n">
-        <v>22178.7713</v>
-      </c>
+        <v>3913888.5397</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>557.477</v>
+        <v>731.84018</v>
       </c>
       <c r="G13" t="n">
-        <v>425968</v>
+        <v>823972.7719000001</v>
       </c>
       <c r="H13" t="n">
-        <v>57072.72</v>
+        <v>82534.3592542018</v>
       </c>
       <c r="I13" t="n">
-        <v>3696961.0873</v>
+        <v>5298499.1313342</v>
       </c>
       <c r="J13" t="n">
-        <v>63542</v>
+        <v>405094.7874</v>
       </c>
       <c r="K13" t="n">
-        <v>393262.8903</v>
+        <v>477371.6203</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3188475</v>
-      </c>
-      <c r="C14" t="n">
-        <v>43971.453</v>
-      </c>
-      <c r="D14" t="n">
-        <v>323559.4977</v>
-      </c>
-      <c r="E14" t="n">
-        <v>22906.5559</v>
-      </c>
+        <v>3711927.87</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>545.03422</v>
+        <v>607.63</v>
       </c>
       <c r="G14" t="n">
-        <v>458705</v>
+        <v>855351.5</v>
       </c>
       <c r="H14" t="n">
-        <v>62273.6237172877</v>
+        <v>86260.4165284522</v>
       </c>
       <c r="I14" t="n">
-        <v>4100436.16453729</v>
+        <v>5152571.07802845</v>
       </c>
       <c r="J14" t="n">
-        <v>65815</v>
+        <v>415144.54</v>
       </c>
       <c r="K14" t="n">
-        <v>390437.5066</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3076648</v>
-      </c>
-      <c r="C15" t="n">
-        <v>49490.6775</v>
-      </c>
-      <c r="D15" t="n">
-        <v>322207.2389</v>
-      </c>
-      <c r="E15" t="n">
-        <v>24999.2997</v>
-      </c>
-      <c r="F15" t="n">
-        <v>561.25263</v>
-      </c>
-      <c r="G15" t="n">
-        <v>559785</v>
-      </c>
-      <c r="H15" t="n">
-        <v>65208.7774233466</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4098900.03185335</v>
-      </c>
-      <c r="J15" t="n">
-        <v>71156</v>
-      </c>
-      <c r="K15" t="n">
-        <v>396697.0018</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3113334</v>
-      </c>
-      <c r="C16" t="n">
-        <v>50296.1954</v>
-      </c>
-      <c r="D16" t="n">
-        <v>306942.2848</v>
-      </c>
-      <c r="E16" t="n">
-        <v>24095.3269</v>
-      </c>
-      <c r="F16" t="n">
-        <v>594.09882</v>
-      </c>
-      <c r="G16" t="n">
-        <v>598282.539</v>
-      </c>
-      <c r="H16" t="n">
-        <v>73751.8442782424</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4167296.28919824</v>
-      </c>
-      <c r="J16" t="n">
-        <v>74733</v>
-      </c>
-      <c r="K16" t="n">
-        <v>381333.8071</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>3150019</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>629.2942</v>
-      </c>
-      <c r="G17" t="n">
-        <v>613567</v>
-      </c>
-      <c r="H17" t="n">
-        <v>75870</v>
-      </c>
-      <c r="I17" t="n">
-        <v>4175886.2942</v>
-      </c>
-      <c r="J17" t="n">
-        <v>74685</v>
-      </c>
-      <c r="K17" t="n">
-        <v>335801</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3341259.3467</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>668.0104700000001</v>
-      </c>
-      <c r="G18" t="n">
-        <v>638237.775</v>
-      </c>
-      <c r="H18" t="n">
-        <v>73411.3095</v>
-      </c>
-      <c r="I18" t="n">
-        <v>4386762.63457</v>
-      </c>
-      <c r="J18" t="n">
-        <v>79769</v>
-      </c>
-      <c r="K18" t="n">
-        <v>333186.1929</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>3686857.6124</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>705.89208</v>
-      </c>
-      <c r="G19" t="n">
-        <v>667845.9643</v>
-      </c>
-      <c r="H19" t="n">
-        <v>80576.048802531</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4804850.35938253</v>
-      </c>
-      <c r="J19" t="n">
-        <v>76030.4039</v>
-      </c>
-      <c r="K19" t="n">
-        <v>368864.8418</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>3956870.7266</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
-        <v>738.5098400000001</v>
-      </c>
-      <c r="G20" t="n">
-        <v>702684.2585</v>
-      </c>
-      <c r="H20" t="n">
-        <v>89807.137799606</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5152731.55703961</v>
-      </c>
-      <c r="J20" t="n">
-        <v>76969</v>
-      </c>
-      <c r="K20" t="n">
-        <v>402630.9243</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>3435480.00328372</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
-        <v>753.14261</v>
-      </c>
-      <c r="G21" t="n">
-        <v>747225.4589</v>
-      </c>
-      <c r="H21" t="n">
-        <v>91261.3644131076</v>
-      </c>
-      <c r="I21" t="n">
-        <v>4713624.36000683</v>
-      </c>
-      <c r="J21" t="n">
-        <v>83243</v>
-      </c>
-      <c r="K21" t="n">
-        <v>438904.3908</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>3426413</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="n">
-        <v>676.60699</v>
-      </c>
-      <c r="G22" t="n">
-        <v>761630</v>
-      </c>
-      <c r="H22" t="n">
-        <v>85623.21016559171</v>
-      </c>
-      <c r="I22" t="n">
-        <v>4729579.04345559</v>
-      </c>
-      <c r="J22" t="n">
-        <v>380087</v>
-      </c>
-      <c r="K22" t="n">
-        <v>455236.2263</v>
+        <v>498423.6531</v>
       </c>
     </row>
   </sheetData>
